--- a/biology/Zoologie/Le_Chien_(Goya)/Le_Chien_(Goya).xlsx
+++ b/biology/Zoologie/Le_Chien_(Goya)/Le_Chien_(Goya).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Chien (de l'espagnol : Perro hundido et également connue comme Tête de chien) est le nom généralement donné à une peinture de l'artiste espagnol Francisco de Goya. Cette œuvre issue des « peintures noires » a été réalisée entre 1819 et 1823 directement sur les murs de la maison de l'artiste et est maintenant conservée au musée du Prado de Madrid.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle montre la tête d'un petit chien noir regardant vers le haut. Le chien lui-même est presque perdu dans l'immensité du reste de l'image, qui est vide à l'exception d'une zone sombre en pente vers le bas de l'image qui dissimule le corps de l'animal.
 </t>
@@ -543,9 +557,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette œuvre a notamment inspiré Antonio Saura et Herman Braun-Vega. Ce dernier se l'approprie dans le panneau central de son triptyque La familia informal[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette œuvre a notamment inspiré Antonio Saura et Herman Braun-Vega. Ce dernier se l'approprie dans le panneau central de son triptyque La familia informal.
 </t>
         </is>
       </c>
